--- a/resources/Data/ExcelDataDriven.xlsx
+++ b/resources/Data/ExcelDataDriven.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15860" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>TestCases</t>
   </si>
@@ -69,12 +65,43 @@
   </si>
   <si>
     <t>Manager_Login</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Agent1</t>
+  </si>
+  <si>
+    <t>super1</t>
+  </si>
+  <si>
+    <t>mis1</t>
+  </si>
+  <si>
+    <t>am1</t>
+  </si>
+  <si>
+    <t>manager1</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +122,26 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,10 +172,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,22 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,8 +517,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -457,8 +540,14 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="25">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -466,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -474,8 +563,14 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="26">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -483,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -491,8 +586,14 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="27">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -500,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -508,8 +609,14 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="28">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -517,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -525,8 +632,14 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="29">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -534,13 +647,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s" s="30">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Data/ExcelDataDriven.xlsx
+++ b/resources/Data/ExcelDataDriven.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>TestCases</t>
   </si>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -198,6 +198,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -543,7 +555,7 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="25">
+      <c r="G2" t="s" s="40">
         <v>24</v>
       </c>
     </row>
@@ -566,7 +578,7 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="26">
+      <c r="G3" t="s" s="41">
         <v>24</v>
       </c>
     </row>
@@ -589,7 +601,7 @@
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="27">
+      <c r="G4" t="s" s="42">
         <v>24</v>
       </c>
     </row>
@@ -612,7 +624,7 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s" s="28">
+      <c r="G5" t="s" s="37">
         <v>24</v>
       </c>
     </row>
@@ -635,7 +647,7 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s" s="29">
+      <c r="G6" t="s" s="38">
         <v>24</v>
       </c>
     </row>
@@ -658,7 +670,7 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s" s="30">
+      <c r="G7" t="s" s="39">
         <v>24</v>
       </c>
     </row>

--- a/resources/Data/ExcelDataDriven.xlsx
+++ b/resources/Data/ExcelDataDriven.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>TestCases</t>
   </si>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -198,6 +198,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -555,7 +565,7 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="40">
+      <c r="G2" t="s" s="49">
         <v>24</v>
       </c>
     </row>
@@ -578,7 +588,7 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="41">
+      <c r="G3" t="s" s="50">
         <v>24</v>
       </c>
     </row>
@@ -601,7 +611,7 @@
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="42">
+      <c r="G4" t="s" s="51">
         <v>24</v>
       </c>
     </row>
@@ -624,7 +634,7 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s" s="37">
+      <c r="G5" t="s" s="52">
         <v>24</v>
       </c>
     </row>
